--- a/v1_TC_Calculator (2)-KBD.xlsx
+++ b/v1_TC_Calculator (2)-KBD.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
   <si>
     <t>Title</t>
   </si>
@@ -162,9 +162,6 @@
     <t>The app allow this action and nothing happens.</t>
   </si>
   <si>
-    <t>The user has installed Win OS.    The app is running.                   The the display is clear.</t>
-  </si>
-  <si>
     <t>1. Click in the display field (on the calculator screen).</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>(=) button (keyboard buttons)</t>
   </si>
   <si>
-    <t>The user has installed Win OS.    The app is running.  The the display is clear.</t>
-  </si>
-  <si>
     <t>12.</t>
   </si>
   <si>
@@ -295,6 +289,18 @@
   </si>
   <si>
     <t>2. Press on (=) button.</t>
+  </si>
+  <si>
+    <t>The user has installed Win OS.    The app is running.  The display is clear.</t>
+  </si>
+  <si>
+    <t>The user has installed Win OS.    The app is running.                   The display is clear.</t>
+  </si>
+  <si>
+    <t>The user has installed Win OS.    The app is running. The display is clear.</t>
+  </si>
+  <si>
+    <t>The user has installed Win OS.    The app is running.The display is clear.</t>
   </si>
 </sst>
 </file>
@@ -685,15 +691,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -711,163 +717,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB6D7A8"/>
-          <bgColor rgb="FFB6D7A8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -2194,7 +2064,7 @@
   <dimension ref="A1:AB162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2231,8 +2101,8 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="76" t="s">
-        <v>39</v>
+      <c r="I1" s="64" t="s">
+        <v>38</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -2291,7 +2161,7 @@
       <c r="B3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="74" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2329,7 +2199,7 @@
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="73"/>
-      <c r="C4" s="65"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="24"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
@@ -2390,14 +2260,14 @@
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>48</v>
+      <c r="B6" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>24</v>
@@ -2430,8 +2300,8 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="67"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
       <c r="F7" s="13"/>
@@ -2461,9 +2331,9 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="39"/>
-      <c r="C8" s="67"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>23</v>
@@ -2499,7 +2369,7 @@
       <c r="B9" s="38"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>23</v>
@@ -2535,7 +2405,7 @@
       <c r="B10" s="38"/>
       <c r="C10" s="37"/>
       <c r="D10" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>23</v>
@@ -2570,10 +2440,10 @@
       <c r="A11" s="15"/>
       <c r="B11" s="38"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="64" t="s">
+      <c r="D11" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="74" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -2581,7 +2451,7 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="4"/>
@@ -2608,8 +2478,8 @@
       <c r="A12" s="15"/>
       <c r="B12" s="38"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="17"/>
@@ -2668,14 +2538,14 @@
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>48</v>
+      <c r="B14" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="71" t="s">
         <v>24</v>
@@ -2708,8 +2578,8 @@
     </row>
     <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
       <c r="F15" s="13"/>
@@ -2739,9 +2609,9 @@
     <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="39"/>
-      <c r="C16" s="67"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>23</v>
@@ -2777,7 +2647,7 @@
       <c r="B17" s="38"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>23</v>
@@ -2813,7 +2683,7 @@
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>23</v>
@@ -2849,7 +2719,7 @@
       <c r="B19" s="38"/>
       <c r="C19" s="60"/>
       <c r="D19" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>23</v>
@@ -2883,7 +2753,7 @@
       <c r="B20" s="38"/>
       <c r="C20" s="60"/>
       <c r="D20" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>23</v>
@@ -2916,18 +2786,18 @@
       <c r="A21" s="15"/>
       <c r="B21" s="38"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="64" t="s">
+      <c r="D21" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="65" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="59"/>
       <c r="J21" s="4"/>
@@ -2954,8 +2824,8 @@
       <c r="A22" s="15"/>
       <c r="B22" s="38"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="17"/>
@@ -3044,14 +2914,14 @@
       <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="66" t="s">
-        <v>42</v>
+      <c r="B25" s="75" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="71" t="s">
         <v>35</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="71" t="s">
         <v>24</v>
@@ -3084,7 +2954,7 @@
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
-      <c r="B26" s="74"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="69"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
@@ -3119,7 +2989,7 @@
       <c r="B27" s="40"/>
       <c r="C27" s="70"/>
       <c r="D27" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>23</v>
@@ -3155,7 +3025,7 @@
       <c r="B28" s="38"/>
       <c r="C28" s="23"/>
       <c r="D28" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>23</v>
@@ -3191,7 +3061,7 @@
       <c r="B29" s="38"/>
       <c r="C29" s="23"/>
       <c r="D29" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>23</v>
@@ -3226,10 +3096,10 @@
       <c r="A30" s="15"/>
       <c r="B30" s="38"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="64" t="s">
+      <c r="D30" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -3237,7 +3107,7 @@
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="4"/>
@@ -3264,8 +3134,8 @@
       <c r="A31" s="15"/>
       <c r="B31" s="38"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="17"/>
@@ -3324,14 +3194,14 @@
       <c r="A33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>43</v>
+      <c r="B33" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="71" t="s">
         <v>35</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>36</v>
       </c>
       <c r="E33" s="71" t="s">
         <v>24</v>
@@ -3364,7 +3234,7 @@
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="64"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="69"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
@@ -3397,7 +3267,7 @@
       <c r="B35" s="39"/>
       <c r="C35" s="70"/>
       <c r="D35" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>23</v>
@@ -3433,7 +3303,7 @@
       <c r="B36" s="38"/>
       <c r="C36" s="23"/>
       <c r="D36" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>23</v>
@@ -3469,7 +3339,7 @@
       <c r="B37" s="38"/>
       <c r="C37" s="23"/>
       <c r="D37" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>23</v>
@@ -3504,18 +3374,18 @@
       <c r="A38" s="15"/>
       <c r="B38" s="38"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="64" t="s">
+      <c r="D38" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="74" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="78" t="s">
-        <v>38</v>
+      <c r="H38" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="4"/>
@@ -3542,8 +3412,8 @@
       <c r="A39" s="15"/>
       <c r="B39" s="38"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
@@ -3602,14 +3472,14 @@
       <c r="A41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>44</v>
+      <c r="B41" s="79" t="s">
+        <v>43</v>
       </c>
       <c r="C41" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="71" t="s">
         <v>35</v>
-      </c>
-      <c r="D41" s="71" t="s">
-        <v>36</v>
       </c>
       <c r="E41" s="71" t="s">
         <v>24</v>
@@ -3642,7 +3512,7 @@
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="75"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="69"/>
       <c r="D42" s="72"/>
       <c r="E42" s="72"/>
@@ -3675,7 +3545,7 @@
       <c r="B43" s="40"/>
       <c r="C43" s="70"/>
       <c r="D43" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>23</v>
@@ -3711,7 +3581,7 @@
       <c r="B44" s="38"/>
       <c r="C44" s="23"/>
       <c r="D44" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>23</v>
@@ -3747,7 +3617,7 @@
       <c r="B45" s="38"/>
       <c r="C45" s="23"/>
       <c r="D45" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>23</v>
@@ -3782,10 +3652,10 @@
       <c r="A46" s="15"/>
       <c r="B46" s="38"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="64" t="s">
+      <c r="D46" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="74" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -3793,7 +3663,7 @@
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="4"/>
@@ -3820,8 +3690,8 @@
       <c r="A47" s="15"/>
       <c r="B47" s="38"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
@@ -3881,13 +3751,13 @@
         <v>30</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="71" t="s">
         <v>35</v>
-      </c>
-      <c r="D49" s="71" t="s">
-        <v>36</v>
       </c>
       <c r="E49" s="71" t="s">
         <v>24</v>
@@ -3896,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="13"/>
-      <c r="H49" s="78"/>
+      <c r="H49" s="66"/>
       <c r="I49" s="14"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3953,7 +3823,7 @@
       <c r="B51" s="38"/>
       <c r="C51" s="70"/>
       <c r="D51" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>23</v>
@@ -3989,7 +3859,7 @@
       <c r="B52" s="38"/>
       <c r="C52" s="23"/>
       <c r="D52" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>23</v>
@@ -4025,7 +3895,7 @@
       <c r="B53" s="38"/>
       <c r="C53" s="23"/>
       <c r="D53" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>23</v>
@@ -4034,8 +3904,8 @@
         <v>3</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="78" t="s">
-        <v>50</v>
+      <c r="H53" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="4"/>
@@ -4062,10 +3932,10 @@
       <c r="A54" s="15"/>
       <c r="B54" s="38"/>
       <c r="C54" s="23"/>
-      <c r="D54" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="64" t="s">
+      <c r="D54" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="74" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="13"/>
@@ -4096,8 +3966,8 @@
       <c r="A55" s="15"/>
       <c r="B55" s="38"/>
       <c r="C55" s="22"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="14"/>
@@ -4157,13 +4027,13 @@
         <v>31</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="71" t="s">
         <v>35</v>
-      </c>
-      <c r="D57" s="71" t="s">
-        <v>36</v>
       </c>
       <c r="E57" s="71" t="s">
         <v>24</v>
@@ -4228,10 +4098,10 @@
       <c r="A59" s="15"/>
       <c r="B59" s="38"/>
       <c r="C59" s="70"/>
-      <c r="D59" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="74" t="s">
         <v>25</v>
       </c>
       <c r="F59" s="13" t="s">
@@ -4264,8 +4134,8 @@
       <c r="A60" s="17"/>
       <c r="B60" s="38"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="14"/>
@@ -4294,18 +4164,18 @@
       <c r="A61" s="17"/>
       <c r="B61" s="38"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="74" t="s">
         <v>20</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="13"/>
-      <c r="H61" s="78" t="s">
-        <v>77</v>
+      <c r="H61" s="66" t="s">
+        <v>75</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="4"/>
@@ -4332,8 +4202,8 @@
       <c r="A62" s="17"/>
       <c r="B62" s="38"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
       <c r="H62" s="14"/>
@@ -4393,13 +4263,13 @@
         <v>32</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C64" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="71" t="s">
         <v>35</v>
-      </c>
-      <c r="D64" s="71" t="s">
-        <v>36</v>
       </c>
       <c r="E64" s="71" t="s">
         <v>24</v>
@@ -4464,10 +4334,10 @@
       <c r="A66" s="15"/>
       <c r="B66" s="38"/>
       <c r="C66" s="70"/>
-      <c r="D66" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="64" t="s">
+      <c r="D66" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="74" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="13" t="s">
@@ -4500,8 +4370,8 @@
       <c r="A67" s="15"/>
       <c r="B67" s="38"/>
       <c r="C67" s="22"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="14"/>
@@ -4530,10 +4400,10 @@
       <c r="A68" s="17"/>
       <c r="B68" s="38"/>
       <c r="C68" s="16"/>
-      <c r="D68" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="64" t="s">
+      <c r="D68" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="74" t="s">
         <v>21</v>
       </c>
       <c r="F68" s="13" t="s">
@@ -4566,8 +4436,8 @@
       <c r="A69" s="17"/>
       <c r="B69" s="38"/>
       <c r="C69" s="16"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="14"/>
@@ -4627,13 +4497,13 @@
         <v>33</v>
       </c>
       <c r="B71" s="71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C71" s="68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E71" s="71" t="s">
         <v>24</v>
@@ -4698,10 +4568,10 @@
       <c r="A73" s="15"/>
       <c r="B73" s="38"/>
       <c r="C73" s="70"/>
-      <c r="D73" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E73" s="64" t="s">
+      <c r="D73" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="74" t="s">
         <v>18</v>
       </c>
       <c r="F73" s="13" t="s">
@@ -4734,8 +4604,8 @@
       <c r="A74" s="15"/>
       <c r="B74" s="38"/>
       <c r="C74" s="22"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="14"/>
@@ -4764,10 +4634,10 @@
       <c r="A75" s="17"/>
       <c r="B75" s="38"/>
       <c r="C75" s="16"/>
-      <c r="D75" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="64" t="s">
+      <c r="D75" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="74" t="s">
         <v>22</v>
       </c>
       <c r="F75" s="13" t="s">
@@ -4800,8 +4670,8 @@
       <c r="A76" s="17"/>
       <c r="B76" s="38"/>
       <c r="C76" s="16"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="14"/>
@@ -4839,16 +4709,16 @@
     </row>
     <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C78" s="68" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D78" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E78" s="71" t="s">
         <v>24</v>
@@ -4875,18 +4745,18 @@
       <c r="A80" s="15"/>
       <c r="B80" s="38"/>
       <c r="C80" s="70"/>
-      <c r="D80" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="64" t="s">
+      <c r="D80" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="74" t="s">
         <v>34</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G80" s="13"/>
-      <c r="H80" s="78" t="s">
-        <v>53</v>
+      <c r="H80" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="I80" s="14"/>
     </row>
@@ -4894,8 +4764,8 @@
       <c r="A81" s="17"/>
       <c r="B81" s="38"/>
       <c r="C81" s="22"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14"/>
@@ -4925,26 +4795,26 @@
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="68" t="s">
+      <c r="E84" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="D84" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="78" t="s">
-        <v>58</v>
+      <c r="H84" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="I84" s="14"/>
     </row>
@@ -4983,25 +4853,25 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="E88" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="C88" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="78"/>
+      <c r="H88" s="66"/>
       <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5050,8 +4920,8 @@
     </row>
     <row r="93" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="15"/>
-      <c r="B93" s="79" t="s">
-        <v>63</v>
+      <c r="B93" s="67" t="s">
+        <v>61</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="30"/>
@@ -5818,17 +5688,48 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
@@ -5845,51 +5746,20 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C71:C73"/>
     <mergeCell ref="C78:C80"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F12 F61:F76 F23:F59">
     <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="Passed">
